--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="SadsLogin" sheetId="3" r:id="rId4"/>
     <sheet name="CSM_Passbooks" sheetId="6" r:id="rId5"/>
     <sheet name="CSM_Amend_Check_Card_Status" sheetId="7" r:id="rId6"/>
+    <sheet name="CSM_Receive_From_Provider" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Stage</t>
   </si>
@@ -166,6 +167,15 @@
   </si>
   <si>
     <t>350000000371</t>
+  </si>
+  <si>
+    <t>Check Code</t>
+  </si>
+  <si>
+    <t>CHB_013</t>
+  </si>
+  <si>
+    <t>CHB_013_D1</t>
   </si>
 </sst>
 </file>
@@ -344,7 +354,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -370,15 +380,16 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -683,7 +694,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1121,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,26 +1169,69 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="22">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="22">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="22">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="CSM_Passbooks" sheetId="6" r:id="rId5"/>
     <sheet name="CSM_Amend_Check_Card_Status" sheetId="7" r:id="rId6"/>
     <sheet name="CSM_Receive_From_Provider" sheetId="8" r:id="rId7"/>
+    <sheet name="CSM_Reactivate" sheetId="9" r:id="rId8"/>
+    <sheet name="CSM_Chequebook" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Stage</t>
   </si>
@@ -176,6 +178,33 @@
   </si>
   <si>
     <t>CHB_013_D1</t>
+  </si>
+  <si>
+    <t>Reverse ChequeBook Code</t>
+  </si>
+  <si>
+    <t>To Be Reversed ChequeBook Code</t>
+  </si>
+  <si>
+    <t>CHB_142</t>
+  </si>
+  <si>
+    <t>CHB_142_D1</t>
+  </si>
+  <si>
+    <t>CHB_143</t>
+  </si>
+  <si>
+    <t>CHB_143_D2</t>
+  </si>
+  <si>
+    <t>CHB_144</t>
+  </si>
+  <si>
+    <t>CHB_144_D3</t>
+  </si>
+  <si>
+    <t>GOWRI</t>
   </si>
 </sst>
 </file>
@@ -185,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +274,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,7 +398,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,6 +434,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -850,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" activeCellId="1" sqref="C2 D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -885,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1004,7 +1050,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,7 +1179,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1234,4 +1280,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1046</v>
+      </c>
+      <c r="D27" s="22">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1051</v>
+      </c>
+      <c r="D28" s="22">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1053</v>
+      </c>
+      <c r="D29" s="22">
+        <v>1053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
   <si>
     <t>Stage</t>
   </si>
@@ -189,22 +189,238 @@
     <t>CHB_142</t>
   </si>
   <si>
-    <t>CHB_142_D1</t>
-  </si>
-  <si>
     <t>CHB_143</t>
   </si>
   <si>
-    <t>CHB_143_D2</t>
-  </si>
-  <si>
     <t>CHB_144</t>
   </si>
   <si>
-    <t>CHB_144_D3</t>
-  </si>
-  <si>
     <t>GOWRI</t>
+  </si>
+  <si>
+    <t>CHB_012</t>
+  </si>
+  <si>
+    <t>CHB_012_01</t>
+  </si>
+  <si>
+    <t>Cheque Code</t>
+  </si>
+  <si>
+    <t>CHB_013_02</t>
+  </si>
+  <si>
+    <t>Sent to provider Cheque Code</t>
+  </si>
+  <si>
+    <t>Maintenance Cheque Code</t>
+  </si>
+  <si>
+    <t>Batch No</t>
+  </si>
+  <si>
+    <t>2020-01-01-</t>
+  </si>
+  <si>
+    <t>CHB_008</t>
+  </si>
+  <si>
+    <t>CHB_008_03</t>
+  </si>
+  <si>
+    <t>Reactivate Cheque Code</t>
+  </si>
+  <si>
+    <t>CHB_009</t>
+  </si>
+  <si>
+    <t>CHB_009_04</t>
+  </si>
+  <si>
+    <t>CHB_010</t>
+  </si>
+  <si>
+    <t>CHB_010_05</t>
+  </si>
+  <si>
+    <t>No of Cheque boooks</t>
+  </si>
+  <si>
+    <t>Branch code</t>
+  </si>
+  <si>
+    <t>CHB_011</t>
+  </si>
+  <si>
+    <t>CHB_011_06</t>
+  </si>
+  <si>
+    <t>Approve ChequeBookCode</t>
+  </si>
+  <si>
+    <t>CHB_047</t>
+  </si>
+  <si>
+    <t>CHB_047_07</t>
+  </si>
+  <si>
+    <t>CHB_048</t>
+  </si>
+  <si>
+    <t>CHB_048_08</t>
+  </si>
+  <si>
+    <t>CHB_052</t>
+  </si>
+  <si>
+    <t>CHB_052_09</t>
+  </si>
+  <si>
+    <t>CHB_053</t>
+  </si>
+  <si>
+    <t>CHB_053_10</t>
+  </si>
+  <si>
+    <t>CHB_049</t>
+  </si>
+  <si>
+    <t>CHB_049_11</t>
+  </si>
+  <si>
+    <t>CHB_078</t>
+  </si>
+  <si>
+    <t>CHB_078_12</t>
+  </si>
+  <si>
+    <t>CHB_050</t>
+  </si>
+  <si>
+    <t>CHB_050_13</t>
+  </si>
+  <si>
+    <t>CHB_082</t>
+  </si>
+  <si>
+    <t>CHB_082_14</t>
+  </si>
+  <si>
+    <t>CHB_083</t>
+  </si>
+  <si>
+    <t>CHB_083_15</t>
+  </si>
+  <si>
+    <t>CHB_084</t>
+  </si>
+  <si>
+    <t>CHB_084_16</t>
+  </si>
+  <si>
+    <t>CHB_085</t>
+  </si>
+  <si>
+    <t>CHB_085_17</t>
+  </si>
+  <si>
+    <t>CHB_086</t>
+  </si>
+  <si>
+    <t>CHB_086_18</t>
+  </si>
+  <si>
+    <t>CHB_141</t>
+  </si>
+  <si>
+    <t>CHB_141_19</t>
+  </si>
+  <si>
+    <t>CHB_142_20</t>
+  </si>
+  <si>
+    <t>CHB_145</t>
+  </si>
+  <si>
+    <t>CHB_143_21</t>
+  </si>
+  <si>
+    <t>CHB_144_22</t>
+  </si>
+  <si>
+    <t>CHB_145_23</t>
+  </si>
+  <si>
+    <t>CHB_146</t>
+  </si>
+  <si>
+    <t>CHB_146_24</t>
+  </si>
+  <si>
+    <t>CHB_148</t>
+  </si>
+  <si>
+    <t>CHB_148_25</t>
+  </si>
+  <si>
+    <t>Reason Field</t>
+  </si>
+  <si>
+    <t>Okayyyy</t>
+  </si>
+  <si>
+    <t>Approve Destroyed</t>
+  </si>
+  <si>
+    <t>okayyyy</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>516(dummy)</t>
+  </si>
+  <si>
+    <t>DRAFT</t>
+  </si>
+  <si>
+    <t>Account Brief Name</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>ACSD_014</t>
+  </si>
+  <si>
+    <t>ACSD_014_D2</t>
+  </si>
+  <si>
+    <t>ACSD_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIF Code </t>
+  </si>
+  <si>
+    <t>Cheque No</t>
+  </si>
+  <si>
+    <t>ACSD_013_D3</t>
   </si>
 </sst>
 </file>
@@ -398,7 +614,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -436,6 +652,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -896,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" activeCellId="1" sqref="C2 D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -931,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -952,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -987,10 +1207,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1176,25 +1396,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1213,8 +1436,26 @@
       <c r="F1" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -1233,9 +1474,76 @@
       <c r="F2" s="22">
         <v>80</v>
       </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="22">
+        <v>840</v>
+      </c>
+      <c r="I3" s="30">
+        <v>150150</v>
+      </c>
+      <c r="J3" s="22">
+        <v>993437</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="22">
+        <v>840</v>
+      </c>
+      <c r="I4" s="30">
+        <v>150150</v>
+      </c>
+      <c r="J4" s="22">
+        <v>993437</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="22">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1327,75 +1635,1047 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="3" max="9" width="29.5703125" customWidth="1"/>
+    <col min="10" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="20" width="23.28515625" customWidth="1"/>
+    <col min="21" max="21" width="32" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:22">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="22">
+        <v>594</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22">
+        <v>594</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="22">
+        <v>648</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="22">
+        <v>470</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27">
+        <v>470</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="22">
+        <v>482</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="22">
+        <v>482</v>
+      </c>
+      <c r="V5" s="22">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="22">
+        <v>2</v>
+      </c>
+      <c r="O6" s="22">
+        <v>123</v>
+      </c>
+      <c r="P6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>840</v>
+      </c>
+      <c r="R6" s="22">
+        <v>150150</v>
+      </c>
+      <c r="S6" s="22">
+        <v>993437</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="22">
+        <v>1052</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1052</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="22">
+        <v>900</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="22">
+        <v>150</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>840</v>
+      </c>
+      <c r="R9" s="22">
+        <v>435123</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="22">
+        <v>150</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>840</v>
+      </c>
+      <c r="R10" s="22">
+        <v>435123</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="22">
+        <v>123</v>
+      </c>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="22">
+        <v>100</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="22">
+        <v>50</v>
+      </c>
+      <c r="O13" s="22">
+        <v>123</v>
+      </c>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="22">
+        <v>321</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="22">
+        <v>193</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="22">
+        <v>20</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>840</v>
+      </c>
+      <c r="R15" s="22">
+        <v>435123</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="22">
+        <v>30</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>840</v>
+      </c>
+      <c r="R16" s="22">
+        <v>435123</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="22">
+        <v>10</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>840</v>
+      </c>
+      <c r="R17" s="22">
+        <v>435123</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="22">
+        <v>10</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>840</v>
+      </c>
+      <c r="R18" s="22">
+        <v>435123</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="22">
+        <v>20</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>840</v>
+      </c>
+      <c r="R19" s="22">
+        <v>435123</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="T19" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="22">
+        <v>1050</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="22">
+        <v>1046</v>
+      </c>
+      <c r="V21" s="22">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="22">
-        <v>1046</v>
-      </c>
-      <c r="D27" s="22">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="26" t="s">
+      <c r="B22" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="22">
+        <v>1051</v>
+      </c>
+      <c r="V22" s="22">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="22">
-        <v>1051</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="22">
+      <c r="B23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="22">
         <v>1053</v>
       </c>
-      <c r="D29" s="22">
+      <c r="V23" s="22">
         <v>1053</v>
       </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="22">
+        <v>1004</v>
+      </c>
+      <c r="V24" s="22">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="22">
+        <v>1058</v>
+      </c>
+      <c r="V25" s="22">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="22">
+        <v>1020</v>
+      </c>
+      <c r="V26" s="22">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
   <si>
     <t>Stage</t>
   </si>
@@ -421,6 +421,15 @@
   </si>
   <si>
     <t>ACSD_013_D3</t>
+  </si>
+  <si>
+    <t>CHB_179</t>
+  </si>
+  <si>
+    <t>CHB_179_01</t>
+  </si>
+  <si>
+    <t>User Code</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1635,25 +1644,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="9" width="29.5703125" customWidth="1"/>
-    <col min="10" max="11" width="27.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="20" width="23.28515625" customWidth="1"/>
-    <col min="21" max="21" width="32" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" customWidth="1"/>
+    <col min="3" max="10" width="29.5703125" customWidth="1"/>
+    <col min="11" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="21" width="23.28515625" customWidth="1"/>
+    <col min="22" max="22" width="32" customWidth="1"/>
+    <col min="23" max="23" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1664,64 +1673,67 @@
         <v>62</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -1737,11 +1749,11 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="22">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22">
         <v>594</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="27"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -1752,8 +1764,9 @@
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -1767,14 +1780,14 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="22">
+      <c r="J3" s="27"/>
+      <c r="K3" s="22">
         <v>648</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
@@ -1784,8 +1797,9 @@
       <c r="T3" s="27"/>
       <c r="U3" s="27"/>
       <c r="V3" s="27"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1799,15 +1813,15 @@
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="22">
+      <c r="J4" s="27"/>
+      <c r="K4" s="22">
         <v>470</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27">
+      <c r="L4" s="22"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27">
         <v>470</v>
       </c>
-      <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
@@ -1816,8 +1830,9 @@
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="27"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -1831,11 +1846,11 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="22">
+      <c r="J5" s="27"/>
+      <c r="K5" s="22">
         <v>482</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="27"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
@@ -1844,14 +1859,15 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="22">
-        <v>482</v>
-      </c>
+      <c r="U5" s="27"/>
       <c r="V5" s="22">
         <v>482</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="22">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1869,31 +1885,32 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
-      <c r="N6" s="22">
+      <c r="N6" s="27"/>
+      <c r="O6" s="22">
         <v>2</v>
       </c>
-      <c r="O6" s="22">
+      <c r="P6" s="22">
         <v>123</v>
       </c>
-      <c r="P6" s="22">
+      <c r="Q6" s="22">
         <v>1</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="R6" s="22">
         <v>840</v>
       </c>
-      <c r="R6" s="22">
+      <c r="S6" s="22">
         <v>150150</v>
       </c>
-      <c r="S6" s="22">
+      <c r="T6" s="22">
         <v>993437</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="U6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="27"/>
       <c r="V6" s="27"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="27"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -1907,13 +1924,13 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="22">
-        <v>1052</v>
-      </c>
+      <c r="J7" s="27"/>
       <c r="K7" s="22">
         <v>1052</v>
       </c>
-      <c r="L7" s="27"/>
+      <c r="L7" s="22">
+        <v>1052</v>
+      </c>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
@@ -1924,8 +1941,9 @@
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="27"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -1944,18 +1962,19 @@
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
-      <c r="O8" s="22">
+      <c r="O8" s="27"/>
+      <c r="P8" s="22">
         <v>900</v>
       </c>
-      <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="27"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -1969,35 +1988,36 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="22">
+      <c r="O9" s="27"/>
+      <c r="P9" s="22">
         <v>150</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="Q9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="R9" s="22">
         <v>840</v>
       </c>
-      <c r="R9" s="22">
+      <c r="S9" s="22">
         <v>435123</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="T9" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="U9" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="27"/>
       <c r="V9" s="27"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -2011,35 +2031,36 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
-      <c r="O10" s="22">
+      <c r="O10" s="27"/>
+      <c r="P10" s="22">
         <v>150</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="Q10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="R10" s="22">
         <v>840</v>
       </c>
-      <c r="R10" s="22">
+      <c r="S10" s="22">
         <v>435123</v>
       </c>
-      <c r="S10" s="29" t="s">
+      <c r="T10" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="U10" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="U10" s="27"/>
       <c r="V10" s="27"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="27"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
@@ -2049,31 +2070,32 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
-      <c r="O11" s="22">
+      <c r="O11" s="27"/>
+      <c r="P11" s="22">
         <v>123</v>
       </c>
-      <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="27"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2" t="s">
         <v>86</v>
       </c>
@@ -2092,18 +2114,19 @@
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
-      <c r="O12" s="22">
+      <c r="O12" s="27"/>
+      <c r="P12" s="22">
         <v>100</v>
       </c>
-      <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="27"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
@@ -2121,21 +2144,22 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
-      <c r="N13" s="22">
+      <c r="N13" s="27"/>
+      <c r="O13" s="22">
         <v>50</v>
       </c>
-      <c r="O13" s="22">
+      <c r="P13" s="22">
         <v>123</v>
       </c>
-      <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="27"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -2143,13 +2167,13 @@
         <v>91</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="22">
+      <c r="F14" s="22">
         <v>321</v>
       </c>
-      <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -2158,18 +2182,19 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
-      <c r="O14" s="22">
+      <c r="O14" s="27"/>
+      <c r="P14" s="22">
         <v>193</v>
       </c>
-      <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="27"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -2187,29 +2212,30 @@
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
-      <c r="N15" s="22">
+      <c r="N15" s="27"/>
+      <c r="O15" s="22">
         <v>20</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="29" t="s">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="R15" s="22">
         <v>840</v>
       </c>
-      <c r="R15" s="22">
+      <c r="S15" s="22">
         <v>435123</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="T15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="U15" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="U15" s="27"/>
       <c r="V15" s="27"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="27"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
@@ -2227,29 +2253,30 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
-      <c r="N16" s="22">
+      <c r="N16" s="27"/>
+      <c r="O16" s="22">
         <v>30</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="R16" s="22">
         <v>840</v>
       </c>
-      <c r="R16" s="22">
+      <c r="S16" s="22">
         <v>435123</v>
       </c>
-      <c r="S16" s="29" t="s">
+      <c r="T16" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="U16" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="27"/>
       <c r="V16" s="27"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="27"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
@@ -2267,29 +2294,30 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
-      <c r="N17" s="22">
+      <c r="N17" s="27"/>
+      <c r="O17" s="22">
         <v>10</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="29" t="s">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="R17" s="22">
         <v>840</v>
       </c>
-      <c r="R17" s="22">
+      <c r="S17" s="22">
         <v>435123</v>
       </c>
-      <c r="S17" s="29" t="s">
+      <c r="T17" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="U17" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="U17" s="27"/>
       <c r="V17" s="27"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="27"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="2" t="s">
         <v>98</v>
       </c>
@@ -2307,29 +2335,30 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
-      <c r="N18" s="22">
+      <c r="N18" s="27"/>
+      <c r="O18" s="22">
         <v>10</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="29" t="s">
+      <c r="P18" s="27"/>
+      <c r="Q18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="R18" s="22">
         <v>840</v>
       </c>
-      <c r="R18" s="22">
+      <c r="S18" s="22">
         <v>435123</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="T18" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T18" s="23" t="s">
+      <c r="U18" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="U18" s="27"/>
       <c r="V18" s="27"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="27"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -2347,29 +2376,30 @@
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
-      <c r="N19" s="22">
+      <c r="N19" s="27"/>
+      <c r="O19" s="22">
         <v>20</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="29" t="s">
+      <c r="P19" s="27"/>
+      <c r="Q19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="R19" s="22">
         <v>840</v>
       </c>
-      <c r="R19" s="22">
+      <c r="S19" s="22">
         <v>435123</v>
       </c>
-      <c r="S19" s="29" t="s">
+      <c r="T19" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="U19" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="U19" s="27"/>
       <c r="V19" s="27"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="27"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -2381,13 +2411,13 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="22">
+      <c r="H20" s="27"/>
+      <c r="I20" s="22">
         <v>1050</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="J20" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -2400,8 +2430,9 @@
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27"/>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="27"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -2414,10 +2445,10 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="27"/>
+      <c r="J21" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -2428,14 +2459,15 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
-      <c r="U21" s="22">
-        <v>1046</v>
-      </c>
+      <c r="U21" s="27"/>
       <c r="V21" s="22">
         <v>1046</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="22">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="26" t="s">
         <v>55</v>
       </c>
@@ -2448,10 +2480,10 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="27"/>
+      <c r="J22" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -2462,14 +2494,15 @@
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="22">
-        <v>1051</v>
-      </c>
+      <c r="U22" s="27"/>
       <c r="V22" s="22">
         <v>1051</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="22">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="26" t="s">
         <v>56</v>
       </c>
@@ -2482,10 +2515,10 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -2496,14 +2529,15 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
-      <c r="U23" s="22">
-        <v>1053</v>
-      </c>
+      <c r="U23" s="27"/>
       <c r="V23" s="22">
         <v>1053</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="22">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>
@@ -2516,10 +2550,10 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="27"/>
+      <c r="J24" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
@@ -2530,14 +2564,15 @@
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
-      <c r="U24" s="22">
-        <v>1004</v>
-      </c>
+      <c r="U24" s="27"/>
       <c r="V24" s="22">
         <v>1004</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" s="22">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
@@ -2550,10 +2585,10 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="27"/>
+      <c r="J25" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -2564,14 +2599,15 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
       <c r="T25" s="27"/>
-      <c r="U25" s="22">
-        <v>1058</v>
-      </c>
+      <c r="U25" s="27"/>
       <c r="V25" s="22">
         <v>1058</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="22">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
@@ -2584,10 +2620,10 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="27"/>
+      <c r="J26" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="27"/>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
@@ -2598,18 +2634,25 @@
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
-      <c r="U26" s="22">
-        <v>1020</v>
-      </c>
+      <c r="U26" s="27"/>
       <c r="V26" s="22">
         <v>1020</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="W26" s="22">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="22">
+        <v>400402</v>
+      </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -2626,10 +2669,11 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
-      <c r="U27" s="22"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="22"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="28"/>
@@ -2650,10 +2694,11 @@
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
-      <c r="U28" s="22"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="22"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="28"/>
@@ -2674,8 +2719,9 @@
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
-      <c r="U29" s="22"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="CSM_Receive_From_Provider" sheetId="8" r:id="rId7"/>
     <sheet name="CSM_Reactivate" sheetId="9" r:id="rId8"/>
     <sheet name="CSM_Chequebook" sheetId="10" r:id="rId9"/>
+    <sheet name="CSM_Transaction_On_StaffAccount" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>Stage</t>
   </si>
@@ -430,6 +431,42 @@
   </si>
   <si>
     <t>User Code</t>
+  </si>
+  <si>
+    <t>Trx Type</t>
+  </si>
+  <si>
+    <t>Debit Currecncy Code</t>
+  </si>
+  <si>
+    <t>Debit GL Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit CIF Code </t>
+  </si>
+  <si>
+    <t>Debit Serial No</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TRS_078</t>
+  </si>
+  <si>
+    <t>TRS_078_D1</t>
+  </si>
+  <si>
+    <t>TRS_079</t>
+  </si>
+  <si>
+    <t>TRS_079_D2</t>
+  </si>
+  <si>
+    <t>Debit Branch Code</t>
   </si>
 </sst>
 </file>
@@ -623,7 +660,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -665,6 +702,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -1121,6 +1163,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="27">
+        <v>977</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27">
+        <v>840</v>
+      </c>
+      <c r="F2" s="27">
+        <v>96138</v>
+      </c>
+      <c r="G2" s="27">
+        <v>993563</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="27">
+        <v>840</v>
+      </c>
+      <c r="J2" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="27">
+        <v>377</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27">
+        <v>840</v>
+      </c>
+      <c r="F3" s="27">
+        <v>96138</v>
+      </c>
+      <c r="G3" s="27">
+        <v>993563</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="27">
+        <v>840</v>
+      </c>
+      <c r="J3" s="27">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
@@ -1646,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="179">
   <si>
     <t>Stage</t>
   </si>
@@ -467,6 +467,99 @@
   </si>
   <si>
     <t>Debit Branch Code</t>
+  </si>
+  <si>
+    <t>TRS_080</t>
+  </si>
+  <si>
+    <t>TRS_080_D3</t>
+  </si>
+  <si>
+    <t>TRS_077</t>
+  </si>
+  <si>
+    <t>TRS_077_D4</t>
+  </si>
+  <si>
+    <t>TRS_122</t>
+  </si>
+  <si>
+    <t>TRS_122_01</t>
+  </si>
+  <si>
+    <t>TRS_122_D1</t>
+  </si>
+  <si>
+    <t>TRS_122_02</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
+    <t>Account Currency</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Withdrawal Limit</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Eco Sector Value</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>Deposit Limit</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>TRS_123</t>
+  </si>
+  <si>
+    <t>TRS_123_01</t>
+  </si>
+  <si>
+    <t>TRS_123_D2</t>
+  </si>
+  <si>
+    <t>TRS_123_02</t>
+  </si>
+  <si>
+    <t>TRS_124</t>
+  </si>
+  <si>
+    <t>TRS_124_01</t>
+  </si>
+  <si>
+    <t>TRS_124_D3</t>
+  </si>
+  <si>
+    <t>TRS_124_02</t>
+  </si>
+  <si>
+    <t>TRS_125</t>
+  </si>
+  <si>
+    <t>TRS_125_01</t>
+  </si>
+  <si>
+    <t>TRS_125_D4</t>
+  </si>
+  <si>
+    <t>TRS_125_02</t>
+  </si>
+  <si>
+    <t>Transaction Type1</t>
+  </si>
+  <si>
+    <t>Deposit Limit1</t>
   </si>
 </sst>
 </file>
@@ -660,7 +753,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -707,6 +800,8 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -1165,116 +1260,620 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="10" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:18">
       <c r="A2" s="32" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="27">
         <v>977</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27">
         <v>840</v>
       </c>
-      <c r="F2" s="27">
+      <c r="N2" s="27">
         <v>96138</v>
       </c>
-      <c r="G2" s="27">
+      <c r="O2" s="27">
         <v>993563</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="P2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="27">
+      <c r="Q2" s="27">
         <v>840</v>
       </c>
-      <c r="J2" s="27">
+      <c r="R2" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:18">
       <c r="A3" s="26" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="27">
-        <v>377</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="27">
+        <v>452</v>
+      </c>
+      <c r="L3" s="27">
         <v>1</v>
       </c>
-      <c r="E3" s="27">
+      <c r="M3" s="27">
         <v>840</v>
       </c>
-      <c r="F3" s="27">
+      <c r="N3" s="27">
         <v>96138</v>
       </c>
-      <c r="G3" s="27">
+      <c r="O3" s="27">
         <v>993563</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="P3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="27">
+      <c r="Q3" s="27">
         <v>840</v>
       </c>
-      <c r="J3" s="27">
+      <c r="R3" s="27">
         <v>100</v>
       </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="27">
+        <v>452</v>
+      </c>
+      <c r="L4" s="27">
+        <v>1</v>
+      </c>
+      <c r="M4" s="27">
+        <v>840</v>
+      </c>
+      <c r="N4" s="27">
+        <v>96138</v>
+      </c>
+      <c r="O4" s="27">
+        <v>993563</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>840</v>
+      </c>
+      <c r="R4" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27">
+        <v>977</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>840</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="27">
+        <v>452</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27">
+        <v>840</v>
+      </c>
+      <c r="N7" s="27">
+        <v>96138</v>
+      </c>
+      <c r="O7" s="27">
+        <v>993563</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>840</v>
+      </c>
+      <c r="R7" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>840</v>
+      </c>
+      <c r="F9" s="27">
+        <v>452</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27">
+        <v>300</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27">
+        <v>452</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27">
+        <v>840</v>
+      </c>
+      <c r="N10" s="27">
+        <v>96138</v>
+      </c>
+      <c r="O10" s="27">
+        <v>993563</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>840</v>
+      </c>
+      <c r="R10" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
+        <v>840</v>
+      </c>
+      <c r="F12" s="27">
+        <v>452</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27">
+        <v>300</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27">
+        <v>452</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27">
+        <v>840</v>
+      </c>
+      <c r="N13" s="27">
+        <v>96138</v>
+      </c>
+      <c r="O13" s="27">
+        <v>993563</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>840</v>
+      </c>
+      <c r="R13" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27">
+        <v>840</v>
+      </c>
+      <c r="F15" s="27">
+        <v>452</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="27">
+        <v>300</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27">
+        <v>452</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27">
+        <v>840</v>
+      </c>
+      <c r="N16" s="27">
+        <v>96138</v>
+      </c>
+      <c r="O16" s="27">
+        <v>993563</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>840</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="185">
   <si>
     <t>Stage</t>
   </si>
@@ -560,6 +560,24 @@
   </si>
   <si>
     <t>Deposit Limit1</t>
+  </si>
+  <si>
+    <t>TRS_126</t>
+  </si>
+  <si>
+    <t>TRS_126_01</t>
+  </si>
+  <si>
+    <t>Debit GL Code1</t>
+  </si>
+  <si>
+    <t>Debit CIF Code1</t>
+  </si>
+  <si>
+    <t>Debit Serial No1</t>
+  </si>
+  <si>
+    <t>TRS_126_D5</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1277,9 +1295,12 @@
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1355,17 @@
       <c r="R1" s="31" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="32" t="s">
         <v>143</v>
       </c>
@@ -1372,8 +1402,11 @@
       <c r="R2" s="27">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="26" t="s">
         <v>145</v>
       </c>
@@ -1412,8 +1445,11 @@
       <c r="R3" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="26" t="s">
         <v>148</v>
       </c>
@@ -1452,8 +1488,11 @@
       <c r="R4" s="27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>150</v>
       </c>
@@ -1478,8 +1517,11 @@
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="26" t="s">
         <v>152</v>
       </c>
@@ -1514,8 +1556,11 @@
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="26" t="s">
         <v>152</v>
       </c>
@@ -1552,8 +1597,11 @@
       <c r="R7" s="27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="26" t="s">
         <v>152</v>
       </c>
@@ -1578,8 +1626,11 @@
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
         <v>165</v>
       </c>
@@ -1612,8 +1663,11 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
         <v>165</v>
       </c>
@@ -1650,8 +1704,11 @@
       <c r="R10" s="27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
         <v>165</v>
       </c>
@@ -1676,8 +1733,11 @@
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="26" t="s">
         <v>169</v>
       </c>
@@ -1710,8 +1770,11 @@
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="26" t="s">
         <v>169</v>
       </c>
@@ -1748,8 +1811,11 @@
       <c r="R13" s="27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="26" t="s">
         <v>169</v>
       </c>
@@ -1774,8 +1840,11 @@
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="26" t="s">
         <v>173</v>
       </c>
@@ -1798,9 +1867,11 @@
         <v>19</v>
       </c>
       <c r="H15" s="27">
+        <v>100</v>
+      </c>
+      <c r="I15" s="27">
         <v>300</v>
       </c>
-      <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -1810,8 +1881,11 @@
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="26" t="s">
         <v>173</v>
       </c>
@@ -1848,8 +1922,11 @@
       <c r="R16" s="27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="26" t="s">
         <v>173</v>
       </c>
@@ -1874,6 +1951,83 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27">
+        <v>977</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27">
+        <v>840</v>
+      </c>
+      <c r="N19" s="27">
+        <v>96138</v>
+      </c>
+      <c r="O19" s="27">
+        <v>993563</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>840</v>
+      </c>
+      <c r="R19" s="27">
+        <v>100</v>
+      </c>
+      <c r="S19" s="27">
+        <v>210210</v>
+      </c>
+      <c r="T19" s="27">
+        <v>1281</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="CSM_Chequebook" sheetId="10" r:id="rId9"/>
     <sheet name="CSM_Transaction_On_StaffAccount" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
   <si>
     <t>Stage</t>
   </si>
@@ -578,6 +578,30 @@
   </si>
   <si>
     <t>TRS_126_D5</t>
+  </si>
+  <si>
+    <t>TRS_109_01</t>
+  </si>
+  <si>
+    <t>TRS_109</t>
+  </si>
+  <si>
+    <t>Priority Value</t>
+  </si>
+  <si>
+    <t>TRS_109_D1</t>
+  </si>
+  <si>
+    <t>TRS_109_02</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Card</t>
   </si>
 </sst>
 </file>
@@ -705,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -756,6 +780,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -771,7 +806,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -820,6 +855,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -1278,29 +1314,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="10" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="2" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="11" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1311,61 +1347,64 @@
         <v>156</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="32" t="s">
         <v>143</v>
       </c>
@@ -1380,33 +1419,34 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="27">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>977</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27">
         <v>840</v>
       </c>
-      <c r="N2" s="27">
+      <c r="O2" s="27">
         <v>96138</v>
       </c>
-      <c r="O2" s="27">
+      <c r="P2" s="27">
         <v>993563</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="R2" s="27">
         <v>840</v>
       </c>
-      <c r="R2" s="27">
+      <c r="S2" s="27">
         <v>200</v>
       </c>
-      <c r="S2" s="27"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="27"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="26" t="s">
         <v>145</v>
       </c>
@@ -1421,35 +1461,36 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="27">
+      <c r="K3" s="28"/>
+      <c r="L3" s="27">
         <v>452</v>
       </c>
-      <c r="L3" s="27">
+      <c r="M3" s="27">
         <v>1</v>
       </c>
-      <c r="M3" s="27">
+      <c r="N3" s="27">
         <v>840</v>
       </c>
-      <c r="N3" s="27">
+      <c r="O3" s="27">
         <v>96138</v>
       </c>
-      <c r="O3" s="27">
+      <c r="P3" s="27">
         <v>993563</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="Q3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="R3" s="27">
         <v>840</v>
       </c>
-      <c r="R3" s="27">
+      <c r="S3" s="27">
         <v>100</v>
       </c>
-      <c r="S3" s="27"/>
       <c r="T3" s="27"/>
       <c r="U3" s="27"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="26" t="s">
         <v>148</v>
       </c>
@@ -1464,35 +1505,36 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="27">
+      <c r="K4" s="28"/>
+      <c r="L4" s="27">
         <v>452</v>
       </c>
-      <c r="L4" s="27">
+      <c r="M4" s="27">
         <v>1</v>
       </c>
-      <c r="M4" s="27">
+      <c r="N4" s="27">
         <v>840</v>
       </c>
-      <c r="N4" s="27">
+      <c r="O4" s="27">
         <v>96138</v>
       </c>
-      <c r="O4" s="27">
+      <c r="P4" s="27">
         <v>993563</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="Q4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="R4" s="27">
         <v>840</v>
       </c>
-      <c r="R4" s="27">
+      <c r="S4" s="27">
         <v>1000</v>
       </c>
-      <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
         <v>150</v>
       </c>
@@ -1507,10 +1549,10 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="27">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27">
         <v>977</v>
       </c>
-      <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
@@ -1520,8 +1562,9 @@
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="26" t="s">
         <v>152</v>
       </c>
@@ -1531,24 +1574,24 @@
       <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="E6" s="28">
+      <c r="F6" s="28">
         <v>840</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
@@ -1559,8 +1602,9 @@
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="27"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="26" t="s">
         <v>152</v>
       </c>
@@ -1575,33 +1619,34 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="27">
+      <c r="K7" s="28"/>
+      <c r="L7" s="27">
         <v>452</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27">
         <v>840</v>
       </c>
-      <c r="N7" s="27">
+      <c r="O7" s="27">
         <v>96138</v>
       </c>
-      <c r="O7" s="27">
+      <c r="P7" s="27">
         <v>993563</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="R7" s="27">
         <v>840</v>
       </c>
-      <c r="R7" s="27">
+      <c r="S7" s="27">
         <v>1000</v>
       </c>
-      <c r="S7" s="27"/>
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="27"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="26" t="s">
         <v>152</v>
       </c>
@@ -1618,7 +1663,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -1629,8 +1674,9 @@
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
         <v>165</v>
       </c>
@@ -1640,20 +1686,20 @@
       <c r="C9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27">
         <v>1</v>
       </c>
-      <c r="E9" s="27">
+      <c r="F9" s="27">
         <v>840</v>
       </c>
-      <c r="F9" s="27">
+      <c r="G9" s="27">
         <v>452</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27">
         <v>300</v>
       </c>
-      <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -1666,8 +1712,9 @@
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
         <v>165</v>
       </c>
@@ -1682,33 +1729,34 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="27">
+      <c r="K10" s="27"/>
+      <c r="L10" s="27">
         <v>452</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27">
+      <c r="M10" s="27"/>
+      <c r="N10" s="27">
         <v>840</v>
       </c>
-      <c r="N10" s="27">
+      <c r="O10" s="27">
         <v>96138</v>
       </c>
-      <c r="O10" s="27">
+      <c r="P10" s="27">
         <v>993563</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="Q10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="R10" s="27">
         <v>840</v>
       </c>
-      <c r="R10" s="27">
+      <c r="S10" s="27">
         <v>1000</v>
       </c>
-      <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="2" t="s">
         <v>165</v>
       </c>
@@ -1718,7 +1766,7 @@
       <c r="C11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -1736,8 +1784,9 @@
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="27"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="26" t="s">
         <v>169</v>
       </c>
@@ -1747,20 +1796,20 @@
       <c r="C12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="28"/>
+      <c r="E12" s="27">
         <v>1</v>
       </c>
-      <c r="E12" s="27">
+      <c r="F12" s="27">
         <v>840</v>
       </c>
-      <c r="F12" s="27">
+      <c r="G12" s="27">
         <v>452</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27">
         <v>300</v>
       </c>
-      <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
@@ -1773,8 +1822,9 @@
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="27"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="26" t="s">
         <v>169</v>
       </c>
@@ -1789,33 +1839,34 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="27">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27">
         <v>452</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27">
+      <c r="M13" s="27"/>
+      <c r="N13" s="27">
         <v>840</v>
       </c>
-      <c r="N13" s="27">
+      <c r="O13" s="27">
         <v>96138</v>
       </c>
-      <c r="O13" s="27">
+      <c r="P13" s="27">
         <v>993563</v>
       </c>
-      <c r="P13" s="33" t="s">
+      <c r="Q13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="R13" s="27">
         <v>840</v>
       </c>
-      <c r="R13" s="27">
+      <c r="S13" s="27">
         <v>1000</v>
       </c>
-      <c r="S13" s="27"/>
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="27"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="26" t="s">
         <v>169</v>
       </c>
@@ -1825,7 +1876,7 @@
       <c r="C14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -1843,8 +1894,9 @@
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="27"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="26" t="s">
         <v>173</v>
       </c>
@@ -1854,25 +1906,25 @@
       <c r="C15" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="28"/>
+      <c r="E15" s="27">
         <v>1</v>
       </c>
-      <c r="E15" s="27">
+      <c r="F15" s="27">
         <v>840</v>
       </c>
-      <c r="F15" s="27">
+      <c r="G15" s="27">
         <v>452</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="H15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="27">
+      <c r="I15" s="27">
         <v>100</v>
       </c>
-      <c r="I15" s="27">
+      <c r="J15" s="27">
         <v>300</v>
       </c>
-      <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -1884,8 +1936,9 @@
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="27"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="26" t="s">
         <v>173</v>
       </c>
@@ -1900,33 +1953,34 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="27">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27">
         <v>452</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27">
+      <c r="M16" s="27"/>
+      <c r="N16" s="27">
         <v>840</v>
       </c>
-      <c r="N16" s="27">
+      <c r="O16" s="27">
         <v>96138</v>
       </c>
-      <c r="O16" s="27">
+      <c r="P16" s="27">
         <v>993563</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="Q16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="R16" s="27">
         <v>840</v>
       </c>
-      <c r="R16" s="27">
+      <c r="S16" s="27">
         <v>1000</v>
       </c>
-      <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="27"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="26" t="s">
         <v>173</v>
       </c>
@@ -1936,7 +1990,7 @@
       <c r="C17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -1954,8 +2008,9 @@
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="27"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="26" t="s">
         <v>179</v>
       </c>
@@ -1981,8 +2036,9 @@
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="26" t="s">
         <v>179</v>
       </c>
@@ -1997,37 +2053,146 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
-      <c r="K19" s="27">
+      <c r="K19" s="27"/>
+      <c r="L19" s="27">
         <v>977</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27">
+      <c r="M19" s="27"/>
+      <c r="N19" s="27">
         <v>840</v>
       </c>
-      <c r="N19" s="27">
+      <c r="O19" s="27">
         <v>96138</v>
       </c>
-      <c r="O19" s="27">
+      <c r="P19" s="27">
         <v>993563</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="Q19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="R19" s="27">
         <v>840</v>
       </c>
-      <c r="R19" s="27">
+      <c r="S19" s="27">
         <v>100</v>
       </c>
-      <c r="S19" s="27">
+      <c r="T19" s="27">
         <v>210210</v>
       </c>
-      <c r="T19" s="27">
+      <c r="U19" s="27">
         <v>1281</v>
       </c>
-      <c r="U19" s="33" t="s">
+      <c r="V19" s="33" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27">
+        <v>977</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27">
+        <v>300</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27">
+        <v>977</v>
+      </c>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27">
+        <v>840</v>
+      </c>
+      <c r="O21" s="27">
+        <v>96138</v>
+      </c>
+      <c r="P21" s="27">
+        <v>993563</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="27">
+        <v>840</v>
+      </c>
+      <c r="S21" s="27">
+        <v>1000</v>
+      </c>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2319,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2338,9 +2503,10 @@
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -2377,8 +2543,11 @@
       <c r="L1" s="25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -2403,8 +2572,11 @@
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
@@ -2433,8 +2605,11 @@
       <c r="L3" s="22">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>126</v>
       </c>
@@ -2445,23 +2620,26 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="29" t="s">
-        <v>18</v>
+      <c r="G4" s="27">
+        <v>1</v>
       </c>
       <c r="H4" s="22">
         <v>840</v>
       </c>
       <c r="I4" s="30">
-        <v>150150</v>
+        <v>210210</v>
       </c>
       <c r="J4" s="22">
-        <v>993437</v>
+        <v>1158</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="22">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="208">
   <si>
     <t>Stage</t>
   </si>
@@ -602,6 +602,51 @@
   </si>
   <si>
     <t>Card</t>
+  </si>
+  <si>
+    <t>TRS_141</t>
+  </si>
+  <si>
+    <t>TRS_141_D2</t>
+  </si>
+  <si>
+    <t>TRS_141_01</t>
+  </si>
+  <si>
+    <t>TRS_142</t>
+  </si>
+  <si>
+    <t>TRS_142_D3</t>
+  </si>
+  <si>
+    <t>Sadsuser2</t>
+  </si>
+  <si>
+    <t>SYSADM1</t>
+  </si>
+  <si>
+    <t>CSMParamTellerUser</t>
+  </si>
+  <si>
+    <t>CSMParamUser2</t>
+  </si>
+  <si>
+    <t>GOWRITA</t>
+  </si>
+  <si>
+    <t>CSMTellerUser</t>
+  </si>
+  <si>
+    <t>CSMUser2</t>
+  </si>
+  <si>
+    <t>TRS_387</t>
+  </si>
+  <si>
+    <t>TRS_387_D1</t>
+  </si>
+  <si>
+    <t>Credit Branch Code</t>
   </si>
 </sst>
 </file>
@@ -700,18 +745,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -725,6 +758,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,56 +851,57 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -1165,144 +1211,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18" style="8" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="18" style="6" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>377</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14">
-        <v>840</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E2" s="12">
+        <v>840</v>
+      </c>
+      <c r="F2" s="15">
         <v>181</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>12</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>377</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14">
-        <v>840</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="12">
+        <v>840</v>
+      </c>
+      <c r="F3" s="15">
         <v>181</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>12</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>377</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14">
-        <v>840</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="12">
+        <v>840</v>
+      </c>
+      <c r="F4" s="15">
         <v>181</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>12</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>377</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14">
-        <v>840</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="12">
+        <v>840</v>
+      </c>
+      <c r="F5" s="15">
         <v>181</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>12</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1314,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1331,868 +1377,1073 @@
     <col min="15" max="15" width="14.140625" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="W1" s="29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="27">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="25">
         <v>977</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27">
-        <v>840</v>
-      </c>
-      <c r="O2" s="27">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25">
+        <v>840</v>
+      </c>
+      <c r="O2" s="25">
         <v>96138</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="25">
         <v>993563</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="27">
-        <v>840</v>
-      </c>
-      <c r="S2" s="27">
+      <c r="R2" s="25">
+        <v>840</v>
+      </c>
+      <c r="S2" s="25">
         <v>200</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="26" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="27">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="25">
         <v>452</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="25">
         <v>1</v>
       </c>
-      <c r="N3" s="27">
-        <v>840</v>
-      </c>
-      <c r="O3" s="27">
+      <c r="N3" s="25">
+        <v>840</v>
+      </c>
+      <c r="O3" s="25">
         <v>96138</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="25">
         <v>993563</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="27">
-        <v>840</v>
-      </c>
-      <c r="S3" s="27">
+      <c r="R3" s="25">
+        <v>840</v>
+      </c>
+      <c r="S3" s="25">
         <v>100</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="26" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="27">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="25">
         <v>452</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="25">
         <v>1</v>
       </c>
-      <c r="N4" s="27">
-        <v>840</v>
-      </c>
-      <c r="O4" s="27">
+      <c r="N4" s="25">
+        <v>840</v>
+      </c>
+      <c r="O4" s="25">
         <v>96138</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="25">
         <v>993563</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="27">
-        <v>840</v>
-      </c>
-      <c r="S4" s="27">
+      <c r="R4" s="25">
+        <v>840</v>
+      </c>
+      <c r="S4" s="25">
         <v>1000</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="2" t="s">
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25">
         <v>977</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="26" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
         <v>1</v>
       </c>
-      <c r="F6" s="28">
-        <v>840</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="26">
+        <v>840</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="26" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25">
         <v>452</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27">
-        <v>840</v>
-      </c>
-      <c r="O7" s="27">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
+        <v>840</v>
+      </c>
+      <c r="O7" s="25">
         <v>96138</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="25">
         <v>993563</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="27">
-        <v>840</v>
-      </c>
-      <c r="S7" s="27">
+      <c r="R7" s="25">
+        <v>840</v>
+      </c>
+      <c r="S7" s="25">
         <v>1000</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="26" t="s">
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27">
+      <c r="D9" s="26"/>
+      <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="F9" s="27">
-        <v>840</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="F9" s="25">
+        <v>840</v>
+      </c>
+      <c r="G9" s="25">
         <v>452</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25">
         <v>300</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="2" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25">
         <v>452</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27">
-        <v>840</v>
-      </c>
-      <c r="O10" s="27">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25">
+        <v>840</v>
+      </c>
+      <c r="O10" s="25">
         <v>96138</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="25">
         <v>993563</v>
       </c>
-      <c r="Q10" s="33" t="s">
+      <c r="Q10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="27">
-        <v>840</v>
-      </c>
-      <c r="S10" s="27">
+      <c r="R10" s="25">
+        <v>840</v>
+      </c>
+      <c r="S10" s="25">
         <v>1000</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="2" t="s">
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="26" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27">
+      <c r="D12" s="26"/>
+      <c r="E12" s="25">
         <v>1</v>
       </c>
-      <c r="F12" s="27">
-        <v>840</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="F12" s="25">
+        <v>840</v>
+      </c>
+      <c r="G12" s="25">
         <v>452</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27">
+      <c r="H12" s="25"/>
+      <c r="I12" s="25">
         <v>300</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="26" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25">
         <v>452</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27">
-        <v>840</v>
-      </c>
-      <c r="O13" s="27">
+      <c r="M13" s="25"/>
+      <c r="N13" s="25">
+        <v>840</v>
+      </c>
+      <c r="O13" s="25">
         <v>96138</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="25">
         <v>993563</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="27">
-        <v>840</v>
-      </c>
-      <c r="S13" s="27">
+      <c r="R13" s="25">
+        <v>840</v>
+      </c>
+      <c r="S13" s="25">
         <v>1000</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="26" t="s">
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="26" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27">
+      <c r="D15" s="26"/>
+      <c r="E15" s="25">
         <v>1</v>
       </c>
-      <c r="F15" s="27">
-        <v>840</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="F15" s="25">
+        <v>840</v>
+      </c>
+      <c r="G15" s="25">
         <v>452</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <v>100</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="25">
         <v>300</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="26" t="s">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25">
         <v>452</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27">
-        <v>840</v>
-      </c>
-      <c r="O16" s="27">
+      <c r="M16" s="25"/>
+      <c r="N16" s="25">
+        <v>840</v>
+      </c>
+      <c r="O16" s="25">
         <v>96138</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="25">
         <v>993563</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="27">
-        <v>840</v>
-      </c>
-      <c r="S16" s="27">
+      <c r="R16" s="25">
+        <v>840</v>
+      </c>
+      <c r="S16" s="25">
         <v>1000</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="26" t="s">
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="26" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="26" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25">
         <v>977</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27">
-        <v>840</v>
-      </c>
-      <c r="O19" s="27">
+      <c r="M19" s="25"/>
+      <c r="N19" s="25">
+        <v>840</v>
+      </c>
+      <c r="O19" s="25">
         <v>96138</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="25">
         <v>993563</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="27">
-        <v>840</v>
-      </c>
-      <c r="S19" s="27">
+      <c r="R19" s="25">
+        <v>840</v>
+      </c>
+      <c r="S19" s="25">
         <v>100</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="25"/>
+      <c r="U19" s="25">
         <v>210210</v>
       </c>
-      <c r="U19" s="27">
+      <c r="V19" s="25">
         <v>1281</v>
       </c>
-      <c r="V19" s="33" t="s">
+      <c r="W19" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:23">
+      <c r="A20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="26">
         <v>1</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25">
         <v>977</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27">
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25">
         <v>300</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="2" t="s">
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25">
         <v>977</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27">
-        <v>840</v>
-      </c>
-      <c r="O21" s="27">
+      <c r="M21" s="25"/>
+      <c r="N21" s="25">
+        <v>840</v>
+      </c>
+      <c r="O21" s="25">
         <v>96138</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="25">
         <v>993563</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="27">
-        <v>840</v>
-      </c>
-      <c r="S21" s="27">
+      <c r="R21" s="25">
+        <v>840</v>
+      </c>
+      <c r="S21" s="25">
         <v>1000</v>
       </c>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="2" t="s">
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25">
+        <v>452</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25">
+        <v>840</v>
+      </c>
+      <c r="O24" s="25">
+        <v>96138</v>
+      </c>
+      <c r="P24" s="25">
+        <v>993563</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="25">
+        <v>840</v>
+      </c>
+      <c r="S24" s="25">
+        <v>1000</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25">
+        <v>210210</v>
+      </c>
+      <c r="V24" s="25">
+        <v>1281</v>
+      </c>
+      <c r="W24" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25">
+        <v>452</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25">
+        <v>840</v>
+      </c>
+      <c r="O25" s="25">
+        <v>96138</v>
+      </c>
+      <c r="P25" s="25">
+        <v>993563</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="25">
+        <v>840</v>
+      </c>
+      <c r="S25" s="25">
+        <v>100</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25">
+        <v>210210</v>
+      </c>
+      <c r="V25" s="25">
+        <v>1281</v>
+      </c>
+      <c r="W25" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25">
+        <v>40</v>
+      </c>
+      <c r="M26" s="25">
+        <v>1</v>
+      </c>
+      <c r="N26" s="25">
+        <v>840</v>
+      </c>
+      <c r="O26" s="25">
+        <v>1617</v>
+      </c>
+      <c r="P26" s="25">
+        <v>993654</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="25">
+        <v>840</v>
+      </c>
+      <c r="S26" s="25">
+        <v>100</v>
+      </c>
+      <c r="T26" s="25">
+        <v>1</v>
+      </c>
+      <c r="U26" s="25">
+        <v>210210</v>
+      </c>
+      <c r="V26" s="25">
+        <v>1281</v>
+      </c>
+      <c r="W26" s="31" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2202,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2218,37 +2469,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="36">
         <v>123</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="36">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="36">
+        <v>123</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="36">
+        <v>123</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2258,53 +2543,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="36">
         <v>123</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="36">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="36">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="36">
+        <v>123</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="36">
+        <v>123</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2314,37 +2633,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="36">
         <v>123</v>
       </c>
     </row>
@@ -2374,106 +2705,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>377</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14">
-        <v>840</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E2" s="12">
+        <v>840</v>
+      </c>
+      <c r="F2" s="15">
         <v>181</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>12</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>377</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14">
-        <v>840</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="12">
+        <v>840</v>
+      </c>
+      <c r="F3" s="15">
         <v>181</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>12</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>377</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14">
-        <v>840</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="12">
+        <v>840</v>
+      </c>
+      <c r="F4" s="15">
         <v>181</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>12</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2486,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2507,138 +2838,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>80</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="29" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="22">
-        <v>840</v>
-      </c>
-      <c r="I3" s="30">
+      <c r="H3" s="20">
+        <v>840</v>
+      </c>
+      <c r="I3" s="28">
         <v>150150</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>993437</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <v>50</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="25" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25">
         <v>1</v>
       </c>
-      <c r="H4" s="22">
-        <v>840</v>
-      </c>
-      <c r="I4" s="30">
+      <c r="H4" s="20">
+        <v>840</v>
+      </c>
+      <c r="I4" s="28">
         <v>210210</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>1158</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="20">
         <v>41</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="25" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2664,24 +2995,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>731</v>
       </c>
     </row>
@@ -2710,22 +3041,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2755,1065 +3086,1065 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>594</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20">
         <v>594</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="22">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="20">
         <v>648</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="27" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="22">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="20">
         <v>470</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27">
+      <c r="L4" s="20"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25">
         <v>470</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="22">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="20">
         <v>482</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="22">
+      <c r="L5" s="20"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="20">
         <v>482</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="20">
         <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="22">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="20">
         <v>2</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="20">
         <v>123</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>1</v>
       </c>
-      <c r="R6" s="22">
-        <v>840</v>
-      </c>
-      <c r="S6" s="22">
+      <c r="R6" s="20">
+        <v>840</v>
+      </c>
+      <c r="S6" s="20">
         <v>150150</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="20">
         <v>993437</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="22">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="20">
         <v>1052</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="20">
         <v>1052</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="22">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="20">
         <v>900</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="22">
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="20">
         <v>150</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="22">
-        <v>840</v>
-      </c>
-      <c r="S9" s="22">
+      <c r="R9" s="20">
+        <v>840</v>
+      </c>
+      <c r="S9" s="20">
         <v>435123</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="U9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="22">
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="20">
         <v>150</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="22">
-        <v>840</v>
-      </c>
-      <c r="S10" s="22">
+      <c r="R10" s="20">
+        <v>840</v>
+      </c>
+      <c r="S10" s="20">
         <v>435123</v>
       </c>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U10" s="23" t="s">
+      <c r="U10" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="22">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="20">
         <v>123</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="22">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="20">
         <v>100</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="22">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="20">
         <v>50</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="20">
         <v>123</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>321</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="22">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="20">
         <v>193</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="22">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="20">
         <v>20</v>
       </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="29" t="s">
+      <c r="P15" s="25"/>
+      <c r="Q15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="22">
-        <v>840</v>
-      </c>
-      <c r="S15" s="22">
+      <c r="R15" s="20">
+        <v>840</v>
+      </c>
+      <c r="S15" s="20">
         <v>435123</v>
       </c>
-      <c r="T15" s="29" t="s">
+      <c r="T15" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="23" t="s">
+      <c r="U15" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="22">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="20">
         <v>30</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="29" t="s">
+      <c r="P16" s="25"/>
+      <c r="Q16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="22">
-        <v>840</v>
-      </c>
-      <c r="S16" s="22">
+      <c r="R16" s="20">
+        <v>840</v>
+      </c>
+      <c r="S16" s="20">
         <v>435123</v>
       </c>
-      <c r="T16" s="29" t="s">
+      <c r="T16" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U16" s="23" t="s">
+      <c r="U16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="22">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="20">
         <v>10</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="29" t="s">
+      <c r="P17" s="25"/>
+      <c r="Q17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="22">
-        <v>840</v>
-      </c>
-      <c r="S17" s="22">
+      <c r="R17" s="20">
+        <v>840</v>
+      </c>
+      <c r="S17" s="20">
         <v>435123</v>
       </c>
-      <c r="T17" s="29" t="s">
+      <c r="T17" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U17" s="23" t="s">
+      <c r="U17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="22">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="20">
         <v>10</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="29" t="s">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="22">
-        <v>840</v>
-      </c>
-      <c r="S18" s="22">
+      <c r="R18" s="20">
+        <v>840</v>
+      </c>
+      <c r="S18" s="20">
         <v>435123</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U18" s="23" t="s">
+      <c r="U18" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="22">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="20">
         <v>20</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="29" t="s">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="22">
-        <v>840</v>
-      </c>
-      <c r="S19" s="22">
+      <c r="R19" s="20">
+        <v>840</v>
+      </c>
+      <c r="S19" s="20">
         <v>435123</v>
       </c>
-      <c r="T19" s="29" t="s">
+      <c r="T19" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="U19" s="23" t="s">
+      <c r="U19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="22">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="20">
         <v>1050</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="22">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="20">
         <v>1046</v>
       </c>
-      <c r="W21" s="22">
+      <c r="W21" s="20">
         <v>1046</v>
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="22">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="20">
         <v>1051</v>
       </c>
-      <c r="W22" s="22">
+      <c r="W22" s="20">
         <v>1051</v>
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="22">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="20">
         <v>1053</v>
       </c>
-      <c r="W23" s="22">
+      <c r="W23" s="20">
         <v>1053</v>
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="22">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="20">
         <v>1004</v>
       </c>
-      <c r="W24" s="22">
+      <c r="W24" s="20">
         <v>1004</v>
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="22">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="20">
         <v>1058</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="20">
         <v>1058</v>
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="22">
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="20">
         <v>1020</v>
       </c>
-      <c r="W26" s="22">
+      <c r="W26" s="20">
         <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="22">
+      <c r="C27" s="25"/>
+      <c r="D27" s="20">
         <v>400402</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Gowri/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12345" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Transaction" sheetId="5" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="CSM_Reactivate" sheetId="9" r:id="rId8"/>
     <sheet name="CSM_Chequebook" sheetId="10" r:id="rId9"/>
     <sheet name="CSM_Transaction_On_StaffAccount" sheetId="11" r:id="rId10"/>
+    <sheet name="CSM_Transfer_Accounts" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="239">
   <si>
     <t>Stage</t>
   </si>
@@ -647,6 +648,99 @@
   </si>
   <si>
     <t>Credit Branch Code</t>
+  </si>
+  <si>
+    <t>TA_038</t>
+  </si>
+  <si>
+    <t>TA_038_D1</t>
+  </si>
+  <si>
+    <t>Transfer Type</t>
+  </si>
+  <si>
+    <t>From GL To GL</t>
+  </si>
+  <si>
+    <t>Reason Input</t>
+  </si>
+  <si>
+    <t>CIF Field</t>
+  </si>
+  <si>
+    <t>Original GL</t>
+  </si>
+  <si>
+    <t>Destination GL</t>
+  </si>
+  <si>
+    <t>Exception Factor</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>Exception Value</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>TA_039</t>
+  </si>
+  <si>
+    <t>TA_039_D1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>TA_040</t>
+  </si>
+  <si>
+    <t>TA_040_D1</t>
+  </si>
+  <si>
+    <t>TA_041</t>
+  </si>
+  <si>
+    <t>TA_041_D1</t>
+  </si>
+  <si>
+    <t>From Branch To Branch</t>
+  </si>
+  <si>
+    <t>From Branch Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Currency Code </t>
+  </si>
+  <si>
+    <t>From GL</t>
+  </si>
+  <si>
+    <t>From Serial No</t>
+  </si>
+  <si>
+    <t>To Branch Code</t>
+  </si>
+  <si>
+    <t>To Currency Code</t>
+  </si>
+  <si>
+    <t>To GL</t>
+  </si>
+  <si>
+    <t>To Serial No</t>
+  </si>
+  <si>
+    <t>To CIF Code</t>
+  </si>
+  <si>
+    <t>From CIF Code</t>
+  </si>
+  <si>
+    <t>Destination Branch</t>
   </si>
 </sst>
 </file>
@@ -851,7 +945,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -902,6 +996,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="3"/>
@@ -1362,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,6 +2543,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="20">
+        <v>13</v>
+      </c>
+      <c r="E2" s="20">
+        <v>993690</v>
+      </c>
+      <c r="F2" s="20">
+        <v>9686</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1414</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="20">
+        <v>13</v>
+      </c>
+      <c r="E3" s="20">
+        <v>993690</v>
+      </c>
+      <c r="F3" s="20">
+        <v>9686</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1414</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="20">
+        <v>13</v>
+      </c>
+      <c r="E4" s="20">
+        <v>993690</v>
+      </c>
+      <c r="F4" s="20">
+        <v>9686</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1414</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="20">
+        <v>840</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="20">
+        <v>13</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <v>840</v>
+      </c>
+      <c r="L5" s="25">
+        <v>1414</v>
+      </c>
+      <c r="M5" s="25">
+        <v>993686</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="25">
+        <v>1</v>
+      </c>
+      <c r="P5" s="25">
+        <v>840</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>9686</v>
+      </c>
+      <c r="R5" s="25">
+        <v>993690</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
